--- a/matchDay.xlsx
+++ b/matchDay.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -25,31 +25,22 @@
     <t>2023-08-26</t>
   </si>
   <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>2023-09-23</t>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>2024-03-09</t>
   </si>
   <si>
     <t>2023-08-25</t>
   </si>
   <si>
-    <t>2023-09-22</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
+    <t>2024-03-07</t>
   </si>
   <si>
     <t>2023-09-16</t>
   </si>
   <si>
-    <t>2023-08-27</t>
-  </si>
-  <si>
     <t>2023-09-09</t>
-  </si>
-  <si>
-    <t>2023-09-08</t>
   </si>
   <si>
     <t>Adelaide Crows</t>
@@ -470,7 +461,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -478,23 +469,23 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -502,7 +493,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -510,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -518,15 +509,15 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -534,15 +525,15 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -550,15 +541,15 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -566,39 +557,39 @@
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -606,7 +597,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
